--- a/Spreadsheets/2020 07 28_Faculty.xlsx
+++ b/Spreadsheets/2020 07 28_Faculty.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goldenweek/github.com/forchain/AUSPublication/Spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Outlier/github.com/forchain/AUSPublication/Spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB75C7F-7DB3-6448-83F8-C9CE9006DCBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85CA6B0-284C-564E-AFC3-112A6375EF0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23880" yWindow="4320" windowWidth="23880" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="12000" windowWidth="19200" windowHeight="12000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pyedata_rep_28072020_124031_um6" sheetId="1" r:id="rId1"/>
@@ -3764,8 +3764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A324" workbookViewId="0">
-      <selection activeCell="E338" sqref="E338"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3775,6 +3775,7 @@
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
